--- a/biology/Zoologie/Astilodes_mariae/Astilodes_mariae.xlsx
+++ b/biology/Zoologie/Astilodes_mariae/Astilodes_mariae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Astilodes mariae, unique représentant du genre Astilodes, est une espèce d'araignées aranéomorphes de la famille des Salticidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Astilodes mariae, unique représentant du genre Astilodes, est une espèce d'araignées aranéomorphes de la famille des Salticidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Queensland en Australie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Queensland en Australie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 1,50 mm de long sur 1,09 mm et l'abdomen 2,70 mm de long sur 0,78 mm et la carapace de la femelle paratype mesure 1,40 mm de long sur 1,09 mm et l'abdomen 3,01 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 1,50 mm de long sur 1,09 mm et l'abdomen 2,70 mm de long sur 0,78 mm et la carapace de la femelle paratype mesure 1,40 mm de long sur 1,09 mm et l'abdomen 3,01 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Maria Żabka, la fille de Marek Żabka[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Maria Żabka, la fille de Marek Żabka.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Żabka, 2009 : Salticidae (Arachnida: Araneae) from Oriental, Australian and Pacific regions: Astilodes and Urogelides, new genera from Australia. Insect Systematics &amp; Evolution, vol. 40, no 4, p. 349-359 (texte intégral).</t>
         </is>
